--- a/Projects/transactions.xlsx
+++ b/Projects/transactions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,152 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Roger samuel</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Grace College</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>950322243021@gracecoe.org</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6380483376</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>borrow</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-05T11:11:20.959433</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Roger samuel</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Grace College</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>950322243021@gracecoe.org</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6380483376</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-05T11:14:40.835453</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sam</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Grace College</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>950322243023@gracecoe.org</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9486321700</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>borrow</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-05T12:40:13.552358</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sam</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Grace College</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>950322243023@gracecoe.org</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9486321700</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-05T12:44:01.864239</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
